--- a/conditions/schedules/train_y_first/red_square_00/bottom_right/inputTrain_2.6.xlsx
+++ b/conditions/schedules/train_y_first/red_square_00/bottom_right/inputTrain_2.6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giancarlodeiana/Desktop/g-casa_children_task/conditions/schedules/train_y_first/x_increasing_steps/top_right/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\45040\Dropbox\PC (2)\Downloads\g-casa_children_task-master\g-casa_children_task-master\conditions\schedules\train_y_first\red_square_00\bottom_right\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D52636-F7E7-664D-9884-FD2810AA171E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD45CF9-7661-4FE5-B294-766CC6846507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -408,12 +408,12 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -445,7 +445,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -456,19 +456,19 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2">
         <v>2</v>
       </c>
       <c r="F2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I2">
         <v>5</v>
@@ -477,7 +477,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -509,7 +509,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -541,7 +541,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -573,7 +573,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
